--- a/docs/ST3/ST3_19.08.2024_output.xlsx
+++ b/docs/ST3/ST3_19.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L108"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731670959.173373</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731670959.5068223</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670959.173373.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670959.5068223.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>273.81</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>273.5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731670962.6195884</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731670962.938888</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670962.6195884.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670962.938888.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>273.37</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>272.39</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.9800000000000182</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731670963.3551848</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731670963.9607768</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670963.3551848.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670963.9607768.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>272.99</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>271.79</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.199999999999989</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731670965.1970353</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731670966.8163352</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670965.1970353.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670966.8163352.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>271.39</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>271.48</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.09000000000003183</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731670969.5484161</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731670970.4943414</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670969.5484161.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670970.4943414.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>270.59</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>270.11</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.4799999999999613</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731670970.7978575</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731670971.8562863</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670970.7978575.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670971.8562863.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>270.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>269.58</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.9200000000000159</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731670972.0201492</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731670972.2301471</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670972.0201492.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670972.2301471.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>269.93</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>269.22</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.7099999999999795</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731670972.5393887</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731670973.317607</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670972.5393887.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670973.317607.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>269.83</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>270.35</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.5200000000000387</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -955,95 +1019,107 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731670976.231769</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731670976.231769.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+          <t>./test_images/SBERP1731670976.231769.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>270.23</v>
       </c>
-      <c r="J11" t="n">
-        <v>270.23</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>270.14</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.09000000000003183</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731670977.3676143</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731670977.6458905</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670977.3676143.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670977.6458905.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>273.81</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>273.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731670980.09889</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731670980.353101</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670980.09889.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670980.353101.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>273.37</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>272.39</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.9800000000000182</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731670980.7290537</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731670981.2529414</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670980.7290537.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670981.2529414.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>272.99</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>271.79</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1.199999999999989</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731670982.1749287</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731670983.5692036</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670982.1749287.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670983.5692036.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>271.39</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>271.48</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.09000000000003183</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731670985.9878678</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731670986.8309844</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670985.9878678.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670986.8309844.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>270.59</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>270.11</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.4799999999999613</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731670987.1055017</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731670987.9350388</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670987.1055017.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670987.9350388.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>270.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>269.58</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.9200000000000159</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731670988.0849438</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731670988.2379496</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670988.0849438.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670988.2379496.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>269.93</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>269.22</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.7099999999999795</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731670988.4219553</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731670988.976203</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670988.4219553.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670988.976203.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>269.83</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>270.35</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.5200000000000387</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731670991.5521414</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731670993.2141232</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670991.5521414.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670993.2141232.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>270.23</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>273.99</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-3.759999999999991</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-1.39</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731670995.443709</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731670997.3437662</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670995.443709.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670997.3437662.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>274.01</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>272.12</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>1.889999999999986</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731671003.0479803</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731671003.7939298</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671003.0479803.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671003.7939298.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>271.02</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>270.56</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.4599999999999795</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731671004.17096</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731671006.7317557</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671004.17096.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/SBER1731671006.7317557.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>270.51</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>271.48</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.9700000000000273</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731671011.6604254</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731671013.0258284</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671011.6604254.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671013.0258284.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>127.25</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>126.57</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.6800000000000068</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.53</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731671016.2428448</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731671017.984434</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671016.2428448.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671017.984434.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>126.36</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>126.01</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.3499999999999943</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -1727,51 +1881,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731671020.791048</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731671021.186379</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671020.791048.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671021.186379.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>125.82</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>125.86</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.04000000000000625</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1779,51 +1939,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731671023.6789901</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731671025.2140853</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671023.6789901.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671025.2140853.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>125.64</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>126.22</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.5799999999999983</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.46</v>
       </c>
     </row>
@@ -1831,51 +1997,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731671025.398299</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731671026.2762244</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671025.398299.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671026.2762244.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>126.06</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>126.37</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1883,51 +2055,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731671026.8871093</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731671027.844734</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671026.8871093.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731671027.844734.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>126.38</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>126.24</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -1935,51 +2113,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731671029.5867083</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731671031.576801</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671029.5867083.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671031.576801.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>6261.5</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>6242.5</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-19</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -1987,51 +2171,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731671035.8040383</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731671036.805515</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671035.8040383.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671036.805515.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>6190</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>6200</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-10</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -2039,51 +2229,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731671039.6729262</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731671040.6484466</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671039.6729262.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671040.6484466.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>6194.5</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>6181</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>13.5</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2091,51 +2287,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731671042.8949382</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731671043.3584163</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671042.8949382.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671043.3584163.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>6193</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>6215</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>22</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2143,51 +2345,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731671043.5579932</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731671044.3155274</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671043.5579932.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671044.3155274.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>6204.5</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>6200</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-4.5</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -2195,51 +2403,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731671045.8226788</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731671046.434777</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671045.8226788.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731671046.434777.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>6189.5</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>6182</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>7.5</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2247,51 +2461,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731671048.3758104</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731671049.3668835</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671048.3758104.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671049.3668835.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>491.35</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>493.2</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>1.849999999999966</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -2299,51 +2519,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731671049.733895</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731671051.209476</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671049.733895.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671051.209476.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>492.55</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>491.55</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-1</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -2351,51 +2577,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731671053.3162205</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731671055.0811136</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671053.3162205.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731671055.0811136.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>488.65</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>488</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.6499999999999773</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2403,95 +2635,107 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731671061.7506096</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731671061.7506096.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731671061.7506096.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>488.05</v>
       </c>
-      <c r="J39" t="n">
-        <v>488.05</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.15</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.09999999999996589</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731671066.1049504</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731671067.6486502</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731671066.1049504.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731671067.6486502.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>221.17</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>219.86</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>1.309999999999974</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -2499,51 +2743,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731671067.8844278</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731671068.343299</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731671067.8844278.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731671068.343299.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>220.22</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>219.49</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.7299999999999898</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -2551,51 +2801,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731671071.3950791</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731671073.7114797</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731671071.3950791.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731671073.7114797.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>214.87</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>213.85</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>1.02000000000001</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -2603,51 +2859,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731671076.9411857</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731671079.7374737</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731671076.9411857.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731671079.7374737.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>213.39</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>214.22</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.8300000000000125</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -2655,95 +2917,107 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731671083.328259</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731671083.328259.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731671083.328259.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>215.13</v>
       </c>
-      <c r="J44" t="n">
-        <v>215.13</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>215.28</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.1500000000000057</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731671084.9666848</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731671085.52745</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671084.9666848.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671085.52745.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1021.8</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1019.2</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-2.599999999999909</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -2751,51 +3025,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731671091.3743026</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731671093.0525112</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671091.3743026.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671093.0525112.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1017</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1016.4</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.6000000000000227</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2803,51 +3083,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731671094.150876</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731671095.068536</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671094.150876.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671095.068536.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1015</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1014.8</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2855,51 +3141,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731671096.8908875</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731671097.3304741</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671096.8908875.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671097.3304741.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1015.2</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1016.4</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-1.199999999999932</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -2907,51 +3199,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731671097.585802</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731671097.934557</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671097.585802.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671097.934557.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1016.8</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1019.8</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>3</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -2959,51 +3257,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731671098.1952944</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731671099.597198</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671098.1952944.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731671099.597198.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1018.8</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1020.8</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>2</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3011,95 +3315,107 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731671100.4168384</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731671100.4168384.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731671100.4168384.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1020.4</v>
       </c>
-      <c r="J51" t="n">
-        <v>1020.4</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1022.8</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2.399999999999977</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731671113.6101472</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731671114.3944309</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CNY1731671113.6101472.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CNY1731671114.3944309.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>12.168</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>12.169</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.001000000000001222</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -3107,51 +3423,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731671115.7613726</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731671116.2155275</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CNY1731671115.7613726.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CNY1731671116.2155275.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>12.147</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>12.13</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.01699999999999946</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -3159,51 +3481,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731671121.0154378</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731671121.7393382</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731671121.0154378.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731671121.7393382.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>127</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>127.12</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3211,51 +3539,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731671129.707844</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731671131.5966232</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731671129.707844.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731671131.5966232.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>124.38</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>124.46</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -3263,51 +3597,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731671134.8668163</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731671136.182666</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731671134.8668163.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731671136.182666.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>125.52</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>126.66</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>1.140000000000001</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -3315,95 +3655,107 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731671136.4447687</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731671136.4447687.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731671136.4447687.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>126.48</v>
       </c>
-      <c r="J57" t="n">
-        <v>126.48</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>126.7</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.2199999999999989</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731671138.5293248</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731671139.386949</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671138.5293248.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671139.386949.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>161.98</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>161.82</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -3411,51 +3763,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731671142.4696734</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731671144.6795447</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671142.4696734.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671144.6795447.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>160.28</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>160.38</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -3463,51 +3821,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731671150.3136837</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731671152.9815686</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671150.3136837.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671152.9815686.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>158.84</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>158.6</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.2400000000000091</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3515,51 +3879,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731671153.275728</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731671154.3303092</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671153.275728.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731671154.3303092.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>158.96</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>158.84</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3567,51 +3937,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731671159.776109</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731671160.1421103</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671159.776109.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671160.1421103.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>49.275</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>49.22</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.05499999999999972</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3619,51 +3995,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731671168.0894165</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731671168.5693944</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671168.0894165.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671168.5693944.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>48.88</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>48.935</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.05499999999999972</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -3671,51 +4053,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731671171.0138552</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731671172.197027</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671171.0138552.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731671172.197027.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>48.82</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>48.64</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -3723,51 +4111,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731671173.5980504</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731671175.3238783</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671173.5980504.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671175.3238783.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1377.8</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1371.4</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-6.399999999999864</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.46</v>
       </c>
     </row>
@@ -3775,51 +4169,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731671182.8889837</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731671185.617304</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671182.8889837.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671185.617304.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>1359</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>1352.8</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>6.200000000000045</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -3827,51 +4227,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731671185.8310761</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731671186.0290315</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671185.8310761.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671186.0290315.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>1355.4</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>1352.2</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>3.200000000000045</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3879,51 +4285,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731671186.3495066</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731671188.1121008</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671186.3495066.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671188.1121008.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>1353.8</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>1352.4</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>1.399999999999864</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3931,51 +4343,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731671188.8536146</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731671189.9232237</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671188.8536146.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731671189.9232237.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>1351</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>1351</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3983,51 +4401,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731671190.605004</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731671191.676002</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731671190.605004.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731671191.676002.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>57.72</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>58.18</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.4600000000000009</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>-0.8</v>
       </c>
     </row>
@@ -4035,51 +4459,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731671192.2973468</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731671193.9393666</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731671192.2973468.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731671193.9393666.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>58.1</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>57.91</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.1900000000000048</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -4087,51 +4517,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731671193.9553235</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731671195.733247</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731671193.9553235.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731671195.733247.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>57.91</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>57.91</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4139,51 +4575,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731671201.627029</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731671202.1985688</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731671201.627029.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731671202.1985688.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>57.79</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>57.73</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4191,51 +4633,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731671204.138134</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731671205.7484956</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731671204.138134.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731671205.7484956.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>57.62</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>57.89</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.2700000000000031</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.47</v>
       </c>
     </row>
@@ -4243,51 +4691,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731671206.584938</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731671207.0042443</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731671206.584938.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731671207.0042443.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>57.86</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>57.94</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -4295,43 +4749,49 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731671208.8491235</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731671208.8491235.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+          <t>./test_images/ALRS1731671208.8491235.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>57.64</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>57.64</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4339,51 +4799,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731671210.8906837</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731671214.6131723</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731671210.8906837.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731671214.6131723.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>98.41</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>97.91</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-0.51</v>
       </c>
     </row>
@@ -4391,51 +4857,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731671222.7821734</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731671225.4709492</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731671222.7821734.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731671225.4709492.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>97.67</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>98.59</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.9200000000000017</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>-0.9400000000000001</v>
       </c>
     </row>
@@ -4443,51 +4915,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731671225.784914</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731671227.7365544</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731671225.784914.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731671227.7365544.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>98.52</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>98.93000000000001</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.4100000000000108</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -4495,43 +4973,49 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731671227.9919045</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731671227.9919045.png</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731671227.9919045.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>98.84</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>98.84</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4539,51 +5023,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731671229.282169</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731671229.734116</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671229.282169.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671229.734116.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>55</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>54.87</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.1300000000000026</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -4591,51 +5081,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731671231.481977</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731671232.0279148</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671231.481977.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671232.0279148.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>54.61</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>54.61</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4643,51 +5139,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731671233.9293764</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731671236.3114178</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671233.9293764.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671236.3114178.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>54.38</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>54.25</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.1300000000000026</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -4695,51 +5197,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731671237.3736596</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731671239.2803917</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671237.3736596.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671239.2803917.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>54.23</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>54</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.2299999999999969</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -4747,51 +5255,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731671239.667396</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731671240.7806613</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671239.667396.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671240.7806613.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>54.05</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>53.96</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.08999999999999631</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -4799,51 +5313,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731671242.8097017</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731671243.3326502</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671242.8097017.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SELG1731671243.3326502.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>53.36</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>53.62</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.259999999999998</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -4851,51 +5371,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731671244.9890213</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731671247.6741133</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731671244.9890213.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731671247.6741133.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>152.1</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>151.02</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-1.079999999999984</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>-0.7100000000000001</v>
       </c>
     </row>
@@ -4903,51 +5429,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731671247.690044</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731671248.9139612</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731671247.690044.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731671248.9139612.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>151.02</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>150.5</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.5200000000000102</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -4955,51 +5487,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731671249.363446</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731671253.4869661</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731671249.363446.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731671253.4869661.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>150.74</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>149.84</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.9000000000000057</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -5007,51 +5545,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731671254.713253</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731671255.4652421</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731671254.713253.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731671255.4652421.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>149.28</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>150.02</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>-0.7400000000000091</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -5059,95 +5603,107 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731671257.3438604</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731671257.3438604.png</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731671257.3438604.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>150.54</v>
       </c>
-      <c r="J91" t="n">
-        <v>150.54</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>150.52</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-0.01999999999998181</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731671261.6609066</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731671265.9842694</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731671261.6609066.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731671265.9842694.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>0.303</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>0.3025</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.0005000000000000004</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -5155,95 +5711,107 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731671269.0260928</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731671269.0260928.png</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731671269.0260928.png</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>0.3031</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.3031</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>0.303</v>
+      </c>
+      <c r="M93" t="n">
+        <v>-9.999999999998899e-05</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731671271.5102267</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731671274.039946</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671271.5102267.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671274.039946.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>19.701</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>19.635</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.06599999999999895</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -5251,51 +5819,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731671275.6719887</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731671276.957934</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671275.6719887.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671276.957934.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>19.51</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>19.392</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.1180000000000021</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -5303,51 +5877,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731671281.9978101</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731671282.9452088</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671281.9978101.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671282.9452088.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>19.418</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>19.407</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.01099999999999923</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -5355,51 +5935,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731671285.1154747</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731671287.616394</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671285.1154747.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731671287.616394.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>19.316</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>19.327</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-0.01100000000000279</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -5407,95 +5993,107 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731671289.1209865</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731671289.1209865.png</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+          <t>./test_images/AFKS1731671289.1209865.png</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>19.253</v>
       </c>
-      <c r="J98" t="n">
-        <v>19.253</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>19.21</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.04299999999999926</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731671293.4932582</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731671293.954644</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671293.4932582.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671293.954644.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>666.6</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>667</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>-0.3999999999999773</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -5503,51 +6101,57 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731671297.96983</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731671298.7685921</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671297.96983.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671298.7685921.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>669.15</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>668.3</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>-0.8500000000000227</v>
       </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -5555,51 +6159,57 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731671299.2109742</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731671299.2994685</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671299.2109742.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671299.2994685.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>667.5</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>665.55</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>1.950000000000045</v>
       </c>
-      <c r="L101" t="n">
+      <c r="N101" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -5607,51 +6217,57 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731671300.4819553</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731671301.036362</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671300.4819553.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671301.036362.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>664.45</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>663.65</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.8000000000000682</v>
       </c>
-      <c r="L102" t="n">
+      <c r="N102" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -5659,51 +6275,57 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731671304.3444543</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731671305.0359106</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671304.3444543.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731671305.0359106.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>667.75</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>668.2</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>0.4500000000000455</v>
       </c>
-      <c r="L103" t="n">
+      <c r="N103" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -5711,51 +6333,57 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731671306.0673888</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731671306.8253899</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671306.0673888.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671306.8253899.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>147.86</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>148.22</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>-0.3599999999999852</v>
       </c>
-      <c r="L104" t="n">
+      <c r="N104" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -5763,51 +6391,57 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731671312.7294304</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731671314.4237394</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671312.7294304.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671314.4237394.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>145.46</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>146.02</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>-0.5600000000000023</v>
       </c>
-      <c r="L105" t="n">
+      <c r="N105" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -5815,51 +6449,57 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731671320.559969</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731671322.8483593</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671320.559969.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671322.8483593.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>144</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>143.89</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>0.1100000000000136</v>
       </c>
-      <c r="L106" t="n">
+      <c r="N106" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -5867,51 +6507,57 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731671323.781999</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731671324.4375057</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671323.781999.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731671324.4375057.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>143.71</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>143.06</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>0.6500000000000057</v>
       </c>
-      <c r="L107" t="n">
+      <c r="N107" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -5919,44 +6565,50 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731671325.405326</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731671325.405326.png</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+          <t>./test_images/MTLR1731671325.405326.png</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>143.01</v>
       </c>
-      <c r="J108" t="n">
-        <v>143.01</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>143.16</v>
+      </c>
+      <c r="M108" t="n">
+        <v>-0.1500000000000057</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>
@@ -6039,19 +6691,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.989999999999895</v>
+        <v>4.079999999999927</v>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4433333333333217</v>
+        <v>0.4533333333333253</v>
       </c>
       <c r="E3" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -6083,19 +6735,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8000000000001819</v>
+        <v>3.200000000000159</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1142857142857403</v>
+        <v>0.4571428571428799</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -6171,19 +6823,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1839999999999975</v>
+        <v>0.2269999999999968</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0367999999999995</v>
+        <v>0.04539999999999935</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="F9" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="10">
@@ -6193,19 +6845,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3999999999999773</v>
+        <v>-0.4199999999999591</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.07999999999999545</v>
+        <v>-0.08399999999999182</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2700000000000001</v>
+        <v>-0.2800000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="11">
@@ -6237,19 +6889,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1599999999999682</v>
+        <v>-0.3099999999999739</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.03199999999999363</v>
+        <v>-0.06199999999999477</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.09000000000000002</v>
+        <v>-0.19</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="13">
@@ -6259,19 +6911,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.229999999999961</v>
+        <v>2.379999999999967</v>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4459999999999923</v>
+        <v>0.4759999999999934</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="14">
@@ -6325,16 +6977,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.499999999999943</v>
+        <v>1.599999999999909</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3749999999999858</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="E16" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="F16" t="n">
         <v>0.08</v>
@@ -6347,19 +6999,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.180000000000007</v>
+        <v>1.400000000000006</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2950000000000017</v>
+        <v>0.3500000000000014</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9400000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="F17" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="18">
@@ -6413,19 +7065,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0005000000000000004</v>
+        <v>0.0004000000000000115</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0002500000000000002</v>
+        <v>0.0002000000000000057</v>
       </c>
       <c r="E20" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="21">
